--- a/smoc-admin-ui/src/main/resources/static/files/templates/reconciliation_carrier.xlsx
+++ b/smoc-admin-ui/src/main/resources/static/files/templates/reconciliation_carrier.xlsx
@@ -77,9 +77,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;???_ ;_ @_ "/>
@@ -113,28 +113,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,9 +141,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,6 +169,28 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,7 +243,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,29 +255,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -277,13 +277,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,169 +451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,6 +487,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -501,25 +516,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -530,6 +532,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,15 +556,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,11 +577,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,133 +601,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/smoc-admin-ui/src/main/resources/static/files/templates/reconciliation_carrier.xlsx
+++ b/smoc-admin-ui/src/main/resources/static/files/templates/reconciliation_carrier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="结算单" sheetId="1" r:id="rId1"/>
@@ -77,11 +77,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;???_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -112,6 +112,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -133,9 +141,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,27 +163,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,17 +179,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,7 +236,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,6 +248,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -277,19 +277,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,163 +409,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,17 +486,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,12 +512,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -532,15 +556,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,21 +575,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -589,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,133 +601,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -835,55 +835,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>370840</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>776428</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>254582</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8543290" y="104775"/>
-          <a:ext cx="1710055" cy="463550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2424,7 +2375,6 @@
   <pageMargins left="0.708661417322835" right="0.708661417322835" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
